--- a/natmiOut/OldD0/LR-pairs_lrc2p/Hsp90aa1-Egfr.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Hsp90aa1-Egfr.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>126.407937567664</v>
+        <v>155.2826053333333</v>
       </c>
       <c r="H2">
-        <v>126.407937567664</v>
+        <v>465.847816</v>
       </c>
       <c r="I2">
-        <v>0.4019310586194496</v>
+        <v>0.4511422706622114</v>
       </c>
       <c r="J2">
-        <v>0.4019310586194496</v>
+        <v>0.4511422706622115</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.65048987099411</v>
+        <v>2.08532</v>
       </c>
       <c r="N2">
-        <v>1.65048987099411</v>
+        <v>6.25596</v>
       </c>
       <c r="O2">
-        <v>0.01395299254402353</v>
+        <v>0.01753772176136817</v>
       </c>
       <c r="P2">
-        <v>0.01395299254402353</v>
+        <v>0.01753772176136816</v>
       </c>
       <c r="Q2">
-        <v>208.6350205686853</v>
+        <v>323.8139225537066</v>
       </c>
       <c r="R2">
-        <v>208.6350205686853</v>
+        <v>2914.32530298336</v>
       </c>
       <c r="S2">
-        <v>0.005608141064128664</v>
+        <v>0.007912007617665711</v>
       </c>
       <c r="T2">
-        <v>0.005608141064128664</v>
+        <v>0.007912007617665711</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>126.407937567664</v>
+        <v>155.2826053333333</v>
       </c>
       <c r="H3">
-        <v>126.407937567664</v>
+        <v>465.847816</v>
       </c>
       <c r="I3">
-        <v>0.4019310586194496</v>
+        <v>0.4511422706622114</v>
       </c>
       <c r="J3">
-        <v>0.4019310586194496</v>
+        <v>0.4511422706622115</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>101.883843718528</v>
+        <v>101.898173</v>
       </c>
       <c r="N3">
-        <v>101.883843718528</v>
+        <v>305.694519</v>
       </c>
       <c r="O3">
-        <v>0.8613106549420034</v>
+        <v>0.8569724579756384</v>
       </c>
       <c r="P3">
-        <v>0.8613106549420034</v>
+        <v>0.8569724579756383</v>
       </c>
       <c r="Q3">
-        <v>12878.92655592532</v>
+        <v>15823.01378214672</v>
       </c>
       <c r="R3">
-        <v>12878.92655592532</v>
+        <v>142407.1240393205</v>
       </c>
       <c r="S3">
-        <v>0.3461875033410509</v>
+        <v>0.386616500586106</v>
       </c>
       <c r="T3">
-        <v>0.3461875033410509</v>
+        <v>0.386616500586106</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>126.407937567664</v>
+        <v>155.2826053333333</v>
       </c>
       <c r="H4">
-        <v>126.407937567664</v>
+        <v>465.847816</v>
       </c>
       <c r="I4">
-        <v>0.4019310586194496</v>
+        <v>0.4511422706622114</v>
       </c>
       <c r="J4">
-        <v>0.4019310586194496</v>
+        <v>0.4511422706622115</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>14.7549771648983</v>
+        <v>14.921347</v>
       </c>
       <c r="N4">
-        <v>14.7549771648983</v>
+        <v>44.76404100000001</v>
       </c>
       <c r="O4">
-        <v>0.1247363525139732</v>
+        <v>0.1254898202629935</v>
       </c>
       <c r="P4">
-        <v>0.1247363525139732</v>
+        <v>0.1254898202629935</v>
       </c>
       <c r="Q4">
-        <v>1865.146232272772</v>
+        <v>2317.025637242717</v>
       </c>
       <c r="R4">
-        <v>1865.146232272772</v>
+        <v>20853.23073518446</v>
       </c>
       <c r="S4">
-        <v>0.05013541421427008</v>
+        <v>0.05661376245843967</v>
       </c>
       <c r="T4">
-        <v>0.05013541421427008</v>
+        <v>0.05661376245843968</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>117.751973499709</v>
+        <v>117.8650183333333</v>
       </c>
       <c r="H5">
-        <v>117.751973499709</v>
+        <v>353.595055</v>
       </c>
       <c r="I5">
-        <v>0.3744082553196745</v>
+        <v>0.3424330232507294</v>
       </c>
       <c r="J5">
-        <v>0.3744082553196745</v>
+        <v>0.3424330232507295</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.65048987099411</v>
+        <v>2.08532</v>
       </c>
       <c r="N5">
-        <v>1.65048987099411</v>
+        <v>6.25596</v>
       </c>
       <c r="O5">
-        <v>0.01395299254402353</v>
+        <v>0.01753772176136817</v>
       </c>
       <c r="P5">
-        <v>0.01395299254402353</v>
+        <v>0.01753772176136816</v>
       </c>
       <c r="Q5">
-        <v>194.3484395508366</v>
+        <v>245.7862800308667</v>
       </c>
       <c r="R5">
-        <v>194.3484395508366</v>
+        <v>2212.0765202778</v>
       </c>
       <c r="S5">
-        <v>0.005224115594896276</v>
+        <v>0.006005495083675409</v>
       </c>
       <c r="T5">
-        <v>0.005224115594896276</v>
+        <v>0.006005495083675408</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>117.751973499709</v>
+        <v>117.8650183333333</v>
       </c>
       <c r="H6">
-        <v>117.751973499709</v>
+        <v>353.595055</v>
       </c>
       <c r="I6">
-        <v>0.3744082553196745</v>
+        <v>0.3424330232507294</v>
       </c>
       <c r="J6">
-        <v>0.3744082553196745</v>
+        <v>0.3424330232507295</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>101.883843718528</v>
+        <v>101.898173</v>
       </c>
       <c r="N6">
-        <v>101.883843718528</v>
+        <v>305.694519</v>
       </c>
       <c r="O6">
-        <v>0.8613106549420034</v>
+        <v>0.8569724579756384</v>
       </c>
       <c r="P6">
-        <v>0.8613106549420034</v>
+        <v>0.8569724579756383</v>
       </c>
       <c r="Q6">
-        <v>11997.0236655926</v>
+        <v>12010.23002877817</v>
       </c>
       <c r="R6">
-        <v>11997.0236655926</v>
+        <v>108092.0702590036</v>
       </c>
       <c r="S6">
-        <v>0.3224818196050817</v>
+        <v>0.2934556696272065</v>
       </c>
       <c r="T6">
-        <v>0.3224818196050817</v>
+        <v>0.2934556696272065</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>117.751973499709</v>
+        <v>117.8650183333333</v>
       </c>
       <c r="H7">
-        <v>117.751973499709</v>
+        <v>353.595055</v>
       </c>
       <c r="I7">
-        <v>0.3744082553196745</v>
+        <v>0.3424330232507294</v>
       </c>
       <c r="J7">
-        <v>0.3744082553196745</v>
+        <v>0.3424330232507295</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>14.7549771648983</v>
+        <v>14.921347</v>
       </c>
       <c r="N7">
-        <v>14.7549771648983</v>
+        <v>44.76404100000001</v>
       </c>
       <c r="O7">
-        <v>0.1247363525139732</v>
+        <v>0.1254898202629935</v>
       </c>
       <c r="P7">
-        <v>0.1247363525139732</v>
+        <v>0.1254898202629935</v>
       </c>
       <c r="Q7">
-        <v>1737.427680109916</v>
+        <v>1758.704837713029</v>
       </c>
       <c r="R7">
-        <v>1737.427680109916</v>
+        <v>15828.34353941726</v>
       </c>
       <c r="S7">
-        <v>0.04670232011969658</v>
+        <v>0.04297185853984752</v>
       </c>
       <c r="T7">
-        <v>0.04670232011969658</v>
+        <v>0.04297185853984752</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>70.3416305697655</v>
+        <v>71.05112566666666</v>
       </c>
       <c r="H8">
-        <v>70.3416305697655</v>
+        <v>213.153377</v>
       </c>
       <c r="I8">
-        <v>0.2236606860608758</v>
+        <v>0.2064247060870591</v>
       </c>
       <c r="J8">
-        <v>0.2236606860608758</v>
+        <v>0.2064247060870591</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.65048987099411</v>
+        <v>2.08532</v>
       </c>
       <c r="N8">
-        <v>1.65048987099411</v>
+        <v>6.25596</v>
       </c>
       <c r="O8">
-        <v>0.01395299254402353</v>
+        <v>0.01753772176136817</v>
       </c>
       <c r="P8">
-        <v>0.01395299254402353</v>
+        <v>0.01753772176136816</v>
       </c>
       <c r="Q8">
-        <v>116.0981487646076</v>
+        <v>148.1643333752133</v>
       </c>
       <c r="R8">
-        <v>116.0981487646076</v>
+        <v>1333.47900037692</v>
       </c>
       <c r="S8">
-        <v>0.003120735884998587</v>
+        <v>0.003620219060027044</v>
       </c>
       <c r="T8">
-        <v>0.003120735884998587</v>
+        <v>0.003620219060027044</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>70.3416305697655</v>
+        <v>71.05112566666666</v>
       </c>
       <c r="H9">
-        <v>70.3416305697655</v>
+        <v>213.153377</v>
       </c>
       <c r="I9">
-        <v>0.2236606860608758</v>
+        <v>0.2064247060870591</v>
       </c>
       <c r="J9">
-        <v>0.2236606860608758</v>
+        <v>0.2064247060870591</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>101.883843718528</v>
+        <v>101.898173</v>
       </c>
       <c r="N9">
-        <v>101.883843718528</v>
+        <v>305.694519</v>
       </c>
       <c r="O9">
-        <v>0.8613106549420034</v>
+        <v>0.8569724579756384</v>
       </c>
       <c r="P9">
-        <v>0.8613106549420034</v>
+        <v>0.8569724579756383</v>
       </c>
       <c r="Q9">
-        <v>7166.67569587642</v>
+        <v>7239.97989502674</v>
       </c>
       <c r="R9">
-        <v>7166.67569587642</v>
+        <v>65159.81905524066</v>
       </c>
       <c r="S9">
-        <v>0.1926413319958707</v>
+        <v>0.1769002877623257</v>
       </c>
       <c r="T9">
-        <v>0.1926413319958707</v>
+        <v>0.1769002877623257</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>70.3416305697655</v>
+        <v>71.05112566666666</v>
       </c>
       <c r="H10">
-        <v>70.3416305697655</v>
+        <v>213.153377</v>
       </c>
       <c r="I10">
-        <v>0.2236606860608758</v>
+        <v>0.2064247060870591</v>
       </c>
       <c r="J10">
-        <v>0.2236606860608758</v>
+        <v>0.2064247060870591</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>14.7549771648983</v>
+        <v>14.921347</v>
       </c>
       <c r="N10">
-        <v>14.7549771648983</v>
+        <v>44.76404100000001</v>
       </c>
       <c r="O10">
-        <v>0.1247363525139732</v>
+        <v>0.1254898202629935</v>
       </c>
       <c r="P10">
-        <v>0.1247363525139732</v>
+        <v>0.1254898202629935</v>
       </c>
       <c r="Q10">
-        <v>1037.889152798602</v>
+        <v>1060.17850081294</v>
       </c>
       <c r="R10">
-        <v>1037.889152798602</v>
+        <v>9541.606507316457</v>
       </c>
       <c r="S10">
-        <v>0.02789861818000649</v>
+        <v>0.02590419926470631</v>
       </c>
       <c r="T10">
-        <v>0.02789861818000649</v>
+        <v>0.02590419926470631</v>
       </c>
     </row>
   </sheetData>
